--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_1_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>507348.7853742162</v>
+        <v>509053.5413884829</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5572563.744829689</v>
+        <v>5572563.744829688</v>
       </c>
     </row>
     <row r="11">
@@ -656,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,13 +1268,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="V9" t="n">
-        <v>147.2379120664689</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,58 +1381,58 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1549,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1610,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.716191499768439</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1786,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>75.2377801170462</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1971,7 +1973,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>45.28887413297245</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2090,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>39.77286532336496</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,16 +2174,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>163.852170978353</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -2397,16 +2399,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>106.6874096712025</v>
+        <v>170.7457531160715</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,19 +2602,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>223.5500084481726</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,73 +2791,73 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>212.285385643442</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2871,16 +2873,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>32.59406471070921</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>136.9159726472779</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3050,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>241.0142888776591</v>
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3156,22 +3158,22 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>29.79900896488251</v>
+        <v>119.3132525143587</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,16 +3310,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>77.43692675635747</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>178.7343098772259</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3500,64 +3502,64 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.26531605719669</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>61.77856551940151</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3737,31 +3739,31 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,10 +3875,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>241.0142888776591</v>
@@ -3989,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>63.14223173826442</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4177,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4369,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.9060370580465</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C3" t="n">
-        <v>327.4530077769195</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>877.8816728430684</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y3" t="n">
-        <v>670.1213740781145</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="4">
@@ -4504,13 +4506,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4592,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.35113235729608</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="M6" t="n">
         <v>304.2053859195205</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N6" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4741,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4829,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4916,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V9" t="n">
-        <v>110.334904905842</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,19 +5126,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E14" t="n">
         <v>233.7108255783361</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5315,13 +5317,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X14" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="X14" t="n">
-        <v>477.1596022224361</v>
-      </c>
       <c r="Y14" t="n">
-        <v>233.7108255783361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>548.4453565401495</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C15" t="n">
-        <v>373.9923272590225</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D15" t="n">
-        <v>373.9923272590225</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E15" t="n">
-        <v>373.9923272590225</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F15" t="n">
-        <v>227.4577692859075</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>756.2056553051034</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y15" t="n">
-        <v>548.4453565401495</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5460,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>749.627473042513</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>96.0330334569845</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,16 +5600,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5621,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>817.1412885554689</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5698,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E20" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X20" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y20" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>582.7883107557723</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>417.2810673432945</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>30.58726043968704</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.58726043968704</v>
+      </c>
+      <c r="D23" t="n">
+        <v>30.58726043968704</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30.58726043968704</v>
+      </c>
+      <c r="F23" t="n">
+        <v>30.58726043968704</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30.58726043968704</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30.58726043968704</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30.58726043968704</v>
+      </c>
+      <c r="J23" t="n">
         <v>19.28114311021272</v>
-      </c>
-      <c r="C23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="I23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="J23" t="n">
-        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>495.259035872464</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V23" t="n">
-        <v>251.810259228364</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W23" t="n">
-        <v>251.810259228364</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X23" t="n">
-        <v>251.810259228364</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y23" t="n">
-        <v>251.810259228364</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>856.2920952366943</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
-        <v>648.4405950311615</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6309,10 +6311,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6327,25 +6329,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V27" t="n">
-        <v>660.701031422288</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W27" t="n">
-        <v>434.8929420806995</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6415,7 +6417,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6499,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>52.20444079779779</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>825.7581932406586</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>623.5715985994245</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>395.3479803358136</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>395.3479803358136</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>395.3479803358136</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4964801302808</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="31">
@@ -6658,10 +6660,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V32" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>933.9571464551993</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U35" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V35" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W35" t="n">
-        <v>527.5764290961142</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X35" t="n">
-        <v>527.5764290961142</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y35" t="n">
-        <v>527.5764290961142</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>210.869396638348</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C36" t="n">
-        <v>210.869396638348</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>210.869396638348</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>210.869396638348</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>210.869396638348</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="V36" t="n">
-        <v>454.3181732824481</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="W36" t="n">
-        <v>210.869396638348</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X36" t="n">
-        <v>210.869396638348</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y36" t="n">
-        <v>210.869396638348</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="37">
@@ -7117,10 +7119,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
         <v>829.5248650203655</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,13 +7259,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7602,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.7766548071333</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>900.2771234517833</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U45" t="n">
-        <v>533.6469426057913</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V45" t="n">
-        <v>298.4948343740486</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y45" t="n">
-        <v>55.04605772994853</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
         <v>19.28114311021272</v>
@@ -7825,31 +7827,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8772,10 +8774,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M12" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,19 +9248,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,13 +9722,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9959,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10905,7 +10907,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,7 +10916,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>182.397745374651</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22607,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>120.4592573625853</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22790,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>279.3421629403927</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>121.6254758352848</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23002,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23021,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23069,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>160.9567151697601</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23118,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23154,13 +23156,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3.633152633517255</v>
       </c>
       <c r="V9" t="n">
-        <v>85.56267508295639</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,16 +23311,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,19 +23387,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23437,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23498,19 +23500,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23555,13 +23557,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23583,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>133.6273256634422</v>
+        <v>14.00696723134696</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,19 +23630,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23674,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23826,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>36.99766411945026</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23938,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23978,19 +23980,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>211.5727875844715</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24060,16 +24062,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>41.83052479895133</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24227,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24285,16 +24287,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24339,19 +24341,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>145.0075734897171</v>
+        <v>80.94923004484809</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24455,10 +24457,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24488,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>166.9258651286752</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>28.14497471274697</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24655,10 +24657,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24737,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>127.4161621813053</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24759,16 +24761,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>112.4751476826747</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24807,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>34.76719845655995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24898,13 +24900,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="32">
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>192.9631211494366</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24940,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>286.8247010151207</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>145.2236497783945</v>
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25044,22 +25046,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>170.3657197299391</v>
+        <v>80.85147618046292</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>361.5500862927562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25172,7 +25174,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>59.90659040685317</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>21.43041881759572</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>207.2105735132092</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25439,13 +25441,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>136.7341746849847</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,22 +25523,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>143.994419684076</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25625,31 +25627,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>182.3977453746509</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>56.38340022020472</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,10 +25763,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25840,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25865,7 +25867,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>113.6687527430239</v>
@@ -25877,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>101.9362516896722</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>37.01560241437871</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>101.5905486845387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26065,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>481925.4952859363</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.4952859359</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>481925.495285936</v>
+        <v>481925.4952859362</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481925.4952859362</v>
+        <v>481925.495285936</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
         <v>108004.437145366</v>
@@ -26323,7 +26325,7 @@
         <v>108004.4371453661</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26332,16 +26334,16 @@
         <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="J2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="J2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
@@ -26350,7 +26352,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="P2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26427,28 +26429,28 @@
         <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
         <v>8547.111069342402</v>
@@ -26457,7 +26459,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29593.37421928574</v>
+        <v>-29593.37421928577</v>
       </c>
       <c r="C6" t="n">
-        <v>51176.05731226199</v>
+        <v>51176.05731226198</v>
       </c>
       <c r="D6" t="n">
         <v>51176.05731226198</v>
@@ -26531,37 +26533,37 @@
         <v>84803.65731226199</v>
       </c>
       <c r="F6" t="n">
+        <v>84803.65731226199</v>
+      </c>
+      <c r="G6" t="n">
         <v>84803.65731226197</v>
-      </c>
-      <c r="G6" t="n">
-        <v>84803.65731226196</v>
       </c>
       <c r="H6" t="n">
         <v>84803.65731226197</v>
       </c>
       <c r="I6" t="n">
+        <v>84803.65731226199</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21743.71471315573</v>
+      </c>
+      <c r="K6" t="n">
         <v>84803.65731226197</v>
       </c>
-      <c r="J6" t="n">
-        <v>21743.71471315576</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>84803.65731226199</v>
+      </c>
+      <c r="M6" t="n">
         <v>84803.65731226196</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>84803.65731226194</v>
       </c>
-      <c r="M6" t="n">
-        <v>84803.65731226197</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>84803.65731226199</v>
+      </c>
+      <c r="P6" t="n">
         <v>84803.65731226196</v>
-      </c>
-      <c r="O6" t="n">
-        <v>84803.65731226196</v>
-      </c>
-      <c r="P6" t="n">
-        <v>84803.65731226194</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35258,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M12" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,13 +36442,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,7 +37636,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
